--- a/biology/Neurosciences/Gilles_Bertrand/Gilles_Bertrand.xlsx
+++ b/biology/Neurosciences/Gilles_Bertrand/Gilles_Bertrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Guy Pierre Bertrand, né le 5 août 1924, est un neurochirurgien et professeur québécois.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Bertrand a obtenu un B.A. avec la mention summa cum laude (1943) et son diplôme de médecine avec la mention magna cum laude (1949) de l’Université de Montréal.  Il a effectué des études postdoctorales sur les tumeurs au cerveau à l’Hôpital de la Salpêtrière à Paris.  Il a été chirurgien général à l’Hôpital St. Vincent’s de Toledo, en Ohio (É.-U.) avant de revenir à Montréal pour obtenir une M. Sc. (1953) de l’Université McGill.  Le Dr Bertrand s’est joint au corps professoral de l'Institut neurologique de Montréal en 1960. 
 Il a ensuite été chirurgien général au St. Vincent's Hospital de Toledo (Ohio), avant de revenir à Montréal pour faire une maitrise (1953) à l'Université McGill. Il s'est joint à l'Institut neurologique de Montréal en 1960.
@@ -547,7 +561,9 @@
           <t>Publications principales[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duval C, Panisset M, Bertrand G, Sadikot AF. Evidence that ventrolateral thalamotomy may eliminate the supraspinal component of both pathological and physiological tremors. Exp Brain Res. 2000 May;132(2):216-22.
 Vernet O, Montes JL, Farmer JP, Blundell JE, Bertrand G, Freeman CR. Long term results of multimodality treatment of craniopharyngioma in children. J Clin Neurosci. 1999 May;6(3):199-203.
@@ -581,7 +597,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1949 - Médaille du Lieutenant-gouverneur
 1988 - Officier de l'Ordre du Canada
